--- a/out/test/allrandom_Fig_avg.xlsx
+++ b/out/test/allrandom_Fig_avg.xlsx
@@ -392,1122 +392,1122 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.66681099999999982</v>
+        <v>0.65773100000000018</v>
       </c>
       <c r="B1">
-        <v>0.66811300000000007</v>
+        <v>0.65791099999999991</v>
       </c>
       <c r="C1">
-        <v>0.69155699999999987</v>
+        <v>0.65588899999999994</v>
       </c>
       <c r="D1">
-        <v>0.69470799999999999</v>
+        <v>0.64830700000000008</v>
       </c>
       <c r="E1">
-        <v>0.68877199999999983</v>
+        <v>0.62236999999999987</v>
       </c>
       <c r="F1">
-        <v>0.66490899999999986</v>
+        <v>0.63232199999999994</v>
       </c>
       <c r="G1">
-        <v>0.64121499999999987</v>
+        <v>0.60177799999999981</v>
       </c>
       <c r="H1">
-        <v>0.62256699999999976</v>
+        <v>0.57283299999999993</v>
       </c>
       <c r="I1">
-        <v>0.59145100000000006</v>
+        <v>0.56533899999999981</v>
       </c>
       <c r="J1">
-        <v>0.58944399999999997</v>
+        <v>0.53612199999999999</v>
       </c>
       <c r="K1">
-        <v>0.55847500000000005</v>
+        <v>0.56193199999999999</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.65139100000000016</v>
+        <v>0.64199500000000009</v>
       </c>
       <c r="B2">
-        <v>0.64959099999999981</v>
+        <v>0.63848999999999989</v>
       </c>
       <c r="C2">
-        <v>0.66297699999999993</v>
+        <v>0.62680099999999994</v>
       </c>
       <c r="D2">
-        <v>0.65350899999999978</v>
+        <v>0.61025600000000013</v>
       </c>
       <c r="E2">
-        <v>0.63678500000000005</v>
+        <v>0.58201000000000003</v>
       </c>
       <c r="F2">
-        <v>0.61929299999999987</v>
+        <v>0.56564399999999981</v>
       </c>
       <c r="G2">
-        <v>0.59677299999999989</v>
+        <v>0.53399300000000005</v>
       </c>
       <c r="H2">
-        <v>0.58048200000000005</v>
+        <v>0.52045400000000019</v>
       </c>
       <c r="I2">
-        <v>0.56593199999999977</v>
+        <v>0.513405</v>
       </c>
       <c r="J2">
-        <v>0.56296199999999996</v>
+        <v>0.49176000000000003</v>
       </c>
       <c r="K2">
-        <v>0.53812400000000016</v>
+        <v>0.53080099999999986</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.6535479999999998</v>
+        <v>0.64363300000000012</v>
       </c>
       <c r="B3">
-        <v>0.65252200000000005</v>
+        <v>0.63951499999999972</v>
       </c>
       <c r="C3">
-        <v>0.66614999999999991</v>
+        <v>0.6299800000000001</v>
       </c>
       <c r="D3">
-        <v>0.65821999999999992</v>
+        <v>0.61303300000000005</v>
       </c>
       <c r="E3">
-        <v>0.64043300000000003</v>
+        <v>0.58635199999999987</v>
       </c>
       <c r="F3">
-        <v>0.62248200000000009</v>
+        <v>0.57182200000000005</v>
       </c>
       <c r="G3">
-        <v>0.60137900000000011</v>
+        <v>0.54053700000000005</v>
       </c>
       <c r="H3">
-        <v>0.58484800000000003</v>
+        <v>0.52435200000000004</v>
       </c>
       <c r="I3">
-        <v>0.56760699999999997</v>
+        <v>0.5172000000000001</v>
       </c>
       <c r="J3">
-        <v>0.56650100000000014</v>
+        <v>0.49585500000000005</v>
       </c>
       <c r="K3">
-        <v>0.53923399999999999</v>
+        <v>0.53329499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.65345100000000012</v>
+        <v>0.64332499999999992</v>
       </c>
       <c r="B4">
-        <v>0.65229900000000018</v>
+        <v>0.63990900000000017</v>
       </c>
       <c r="C4">
-        <v>0.66728600000000027</v>
+        <v>0.62992300000000001</v>
       </c>
       <c r="D4">
-        <v>0.65873700000000013</v>
+        <v>0.61364499999999988</v>
       </c>
       <c r="E4">
-        <v>0.64014900000000008</v>
+        <v>0.58674500000000007</v>
       </c>
       <c r="F4">
-        <v>0.62400899999999992</v>
+        <v>0.57207000000000019</v>
       </c>
       <c r="G4">
-        <v>0.60174899999999998</v>
+        <v>0.540987</v>
       </c>
       <c r="H4">
-        <v>0.58265400000000001</v>
+        <v>0.52453399999999983</v>
       </c>
       <c r="I4">
-        <v>0.5678660000000002</v>
+        <v>0.51834000000000002</v>
       </c>
       <c r="J4">
-        <v>0.56558399999999986</v>
+        <v>0.49589400000000011</v>
       </c>
       <c r="K4">
-        <v>0.53901099999999991</v>
+        <v>0.53459000000000012</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.64895599999999987</v>
+        <v>0.64155000000000006</v>
       </c>
       <c r="B5">
-        <v>0.64854400000000001</v>
+        <v>0.63838399999999995</v>
       </c>
       <c r="C5">
-        <v>0.66151499999999996</v>
+        <v>0.6293700000000001</v>
       </c>
       <c r="D5">
-        <v>0.6529689999999998</v>
+        <v>0.60967300000000013</v>
       </c>
       <c r="E5">
-        <v>0.63202599999999998</v>
+        <v>0.56957799999999992</v>
       </c>
       <c r="F5">
-        <v>0.60466700000000029</v>
+        <v>0.5548820000000001</v>
       </c>
       <c r="G5">
-        <v>0.58546299999999996</v>
+        <v>0.52417900000000017</v>
       </c>
       <c r="H5">
-        <v>0.56554100000000007</v>
+        <v>0.50659600000000005</v>
       </c>
       <c r="I5">
-        <v>0.54653300000000005</v>
+        <v>0.50311600000000001</v>
       </c>
       <c r="J5">
-        <v>0.54860700000000007</v>
+        <v>0.475188</v>
       </c>
       <c r="K5">
-        <v>0.52512500000000006</v>
+        <v>0.51937400000000034</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.66081999999999996</v>
+        <v>0.65093100000000004</v>
       </c>
       <c r="B6">
-        <v>0.66109499999999999</v>
+        <v>0.64871599999999996</v>
       </c>
       <c r="C6">
-        <v>0.6778829999999999</v>
+        <v>0.63931099999999996</v>
       </c>
       <c r="D6">
-        <v>0.67246600000000012</v>
+        <v>0.62764900000000001</v>
       </c>
       <c r="E6">
-        <v>0.65690799999999994</v>
+        <v>0.60214299999999998</v>
       </c>
       <c r="F6">
-        <v>0.63923499999999978</v>
+        <v>0.59511899999999995</v>
       </c>
       <c r="G6">
-        <v>0.61059299999999983</v>
+        <v>0.55591800000000002</v>
       </c>
       <c r="H6">
-        <v>0.59437700000000004</v>
+        <v>0.53780500000000009</v>
       </c>
       <c r="I6">
-        <v>0.57198899999999997</v>
+        <v>0.52761100000000005</v>
       </c>
       <c r="J6">
-        <v>0.57335700000000001</v>
+        <v>0.50874499999999989</v>
       </c>
       <c r="K6">
-        <v>0.54747499999999993</v>
+        <v>0.54123900000000014</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.65128699999999995</v>
+        <v>0.64273899999999995</v>
       </c>
       <c r="B7">
-        <v>0.64943899999999988</v>
+        <v>0.63875600000000032</v>
       </c>
       <c r="C7">
-        <v>0.65885899999999997</v>
+        <v>0.62464300000000006</v>
       </c>
       <c r="D7">
-        <v>0.64533199999999991</v>
+        <v>0.60578500000000013</v>
       </c>
       <c r="E7">
-        <v>0.61392999999999998</v>
+        <v>0.5577200000000001</v>
       </c>
       <c r="F7">
-        <v>0.57652300000000012</v>
+        <v>0.52501799999999998</v>
       </c>
       <c r="G7">
-        <v>0.53893800000000003</v>
+        <v>0.47594300000000006</v>
       </c>
       <c r="H7">
-        <v>0.52127000000000012</v>
+        <v>0.45410600000000001</v>
       </c>
       <c r="I7">
-        <v>0.51558499999999996</v>
+        <v>0.45044499999999998</v>
       </c>
       <c r="J7">
-        <v>0.51797400000000016</v>
+        <v>0.43030200000000007</v>
       </c>
       <c r="K7">
-        <v>0.50996299999999983</v>
+        <v>0.47656500000000013</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.66107499999999997</v>
+        <v>0.65374100000000002</v>
       </c>
       <c r="B8">
-        <v>0.65934200000000009</v>
+        <v>0.65136600000000011</v>
       </c>
       <c r="C8">
-        <v>0.68025799999999981</v>
+        <v>0.64858300000000002</v>
       </c>
       <c r="D8">
-        <v>0.67567899999999992</v>
+        <v>0.63506199999999968</v>
       </c>
       <c r="E8">
-        <v>0.67611000000000021</v>
+        <v>0.61028899999999997</v>
       </c>
       <c r="F8">
-        <v>0.64257300000000017</v>
+        <v>0.622197</v>
       </c>
       <c r="G8">
-        <v>0.62249900000000002</v>
+        <v>0.59814500000000015</v>
       </c>
       <c r="H8">
-        <v>0.61835200000000001</v>
+        <v>0.56137499999999985</v>
       </c>
       <c r="I8">
-        <v>0.59692800000000001</v>
+        <v>0.55946499999999988</v>
       </c>
       <c r="J8">
-        <v>0.58917600000000003</v>
+        <v>0.53289500000000001</v>
       </c>
       <c r="K8">
-        <v>0.55196899999999993</v>
+        <v>0.56346400000000019</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.66086100000000014</v>
+        <v>0.65430100000000013</v>
       </c>
       <c r="B9">
-        <v>0.66046699999999992</v>
+        <v>0.65206200000000014</v>
       </c>
       <c r="C9">
-        <v>0.67984</v>
+        <v>0.64829499999999995</v>
       </c>
       <c r="D9">
-        <v>0.67551399999999984</v>
+        <v>0.63392999999999988</v>
       </c>
       <c r="E9">
-        <v>0.67520299999999978</v>
+        <v>0.61086800000000008</v>
       </c>
       <c r="F9">
-        <v>0.64114399999999994</v>
+        <v>0.62165899999999996</v>
       </c>
       <c r="G9">
-        <v>0.62200899999999992</v>
+        <v>0.59693799999999986</v>
       </c>
       <c r="H9">
-        <v>0.61732699999999996</v>
+        <v>0.56278099999999998</v>
       </c>
       <c r="I9">
-        <v>0.59189199999999997</v>
+        <v>0.55765299999999995</v>
       </c>
       <c r="J9">
-        <v>0.58882699999999988</v>
+        <v>0.5319600000000001</v>
       </c>
       <c r="K9">
-        <v>0.55162199999999995</v>
+        <v>0.56422200000000022</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.90000100000000005</v>
+        <v>0.90930800000000001</v>
       </c>
       <c r="B10">
-        <v>0.88081199999999993</v>
+        <v>0.89101699999999995</v>
       </c>
       <c r="C10">
-        <v>0.85503000000000018</v>
+        <v>0.86281600000000003</v>
       </c>
       <c r="D10">
-        <v>0.80791300000000021</v>
+        <v>0.8278770000000002</v>
       </c>
       <c r="E10">
-        <v>0.76871700000000009</v>
+        <v>0.79495099999999974</v>
       </c>
       <c r="F10">
-        <v>0.71584500000000018</v>
+        <v>0.79808500000000004</v>
       </c>
       <c r="G10">
-        <v>0.67703599999999997</v>
+        <v>0.74347300000000005</v>
       </c>
       <c r="H10">
-        <v>0.66290800000000005</v>
+        <v>0.68902900000000011</v>
       </c>
       <c r="I10">
-        <v>0.6173280000000001</v>
+        <v>0.66354300000000022</v>
       </c>
       <c r="J10">
-        <v>0.60855300000000012</v>
+        <v>0.61921100000000007</v>
       </c>
       <c r="K10">
-        <v>0.58554699999999993</v>
+        <v>0.602495</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.54475499999999999</v>
+        <v>0.56249800000000005</v>
       </c>
       <c r="B11">
-        <v>0.54126400000000008</v>
+        <v>0.56447999999999998</v>
       </c>
       <c r="C11">
-        <v>0.56566200000000011</v>
+        <v>0.58773000000000009</v>
       </c>
       <c r="D11">
-        <v>0.58429900000000001</v>
+        <v>0.52894800000000008</v>
       </c>
       <c r="E11">
-        <v>0.56940999999999997</v>
+        <v>0.47094900000000012</v>
       </c>
       <c r="F11">
-        <v>0.49191599999999996</v>
+        <v>0.4514720000000001</v>
       </c>
       <c r="G11">
-        <v>0.46267700000000012</v>
+        <v>0.46366899999999994</v>
       </c>
       <c r="H11">
-        <v>0.42300899999999991</v>
+        <v>0.47701299999999996</v>
       </c>
       <c r="I11">
-        <v>0.41241200000000006</v>
+        <v>0.47543999999999992</v>
       </c>
       <c r="J11">
-        <v>0.40323599999999998</v>
+        <v>0.49881300000000012</v>
       </c>
       <c r="K11">
-        <v>0.44819400000000004</v>
+        <v>0.44163100000000016</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.54525199999999996</v>
+        <v>0.5622769999999998</v>
       </c>
       <c r="B12">
-        <v>0.54048500000000022</v>
+        <v>0.5641179999999999</v>
       </c>
       <c r="C12">
-        <v>0.56495100000000009</v>
+        <v>0.58626</v>
       </c>
       <c r="D12">
-        <v>0.58102100000000012</v>
+        <v>0.53424700000000014</v>
       </c>
       <c r="E12">
-        <v>0.57176699999999991</v>
+        <v>0.47657200000000005</v>
       </c>
       <c r="F12">
-        <v>0.49503600000000014</v>
+        <v>0.45787999999999995</v>
       </c>
       <c r="G12">
-        <v>0.46819500000000003</v>
+        <v>0.47552499999999981</v>
       </c>
       <c r="H12">
-        <v>0.43494100000000008</v>
+        <v>0.48488700000000001</v>
       </c>
       <c r="I12">
-        <v>0.41109999999999991</v>
+        <v>0.47562999999999994</v>
       </c>
       <c r="J12">
-        <v>0.40007299999999996</v>
+        <v>0.49185200000000001</v>
       </c>
       <c r="K12">
-        <v>0.45220700000000003</v>
+        <v>0.43630899999999995</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.54609700000000005</v>
+        <v>0.56237900000000007</v>
       </c>
       <c r="B13">
-        <v>0.54099000000000008</v>
+        <v>0.56404000000000032</v>
       </c>
       <c r="C13">
-        <v>0.56372</v>
+        <v>0.586696</v>
       </c>
       <c r="D13">
-        <v>0.57996799999999982</v>
+        <v>0.54058099999999998</v>
       </c>
       <c r="E13">
-        <v>0.57115500000000008</v>
+        <v>0.47514500000000015</v>
       </c>
       <c r="F13">
-        <v>0.49474900000000005</v>
+        <v>0.45960200000000007</v>
       </c>
       <c r="G13">
-        <v>0.47321999999999997</v>
+        <v>0.48090599999999989</v>
       </c>
       <c r="H13">
-        <v>0.43794199999999994</v>
+        <v>0.48490299999999992</v>
       </c>
       <c r="I13">
-        <v>0.41398599999999997</v>
+        <v>0.47389300000000001</v>
       </c>
       <c r="J13">
-        <v>0.40293899999999994</v>
+        <v>0.49454100000000012</v>
       </c>
       <c r="K13">
-        <v>0.45332499999999987</v>
+        <v>0.43765699999999996</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.81464299999999989</v>
+        <v>0.79270699999999994</v>
       </c>
       <c r="B14">
-        <v>0.79915399999999981</v>
+        <v>0.78845299999999996</v>
       </c>
       <c r="C14">
-        <v>0.79750999999999972</v>
+        <v>0.76767099999999999</v>
       </c>
       <c r="D14">
-        <v>0.77303300000000019</v>
+        <v>0.73931199999999986</v>
       </c>
       <c r="E14">
-        <v>0.74790500000000004</v>
+        <v>0.67873799999999984</v>
       </c>
       <c r="F14">
-        <v>0.70558299999999974</v>
+        <v>0.68096400000000001</v>
       </c>
       <c r="G14">
-        <v>0.67011300000000018</v>
+        <v>0.64532600000000018</v>
       </c>
       <c r="H14">
-        <v>0.63656699999999999</v>
+        <v>0.60380999999999996</v>
       </c>
       <c r="I14">
-        <v>0.59922700000000007</v>
+        <v>0.5920599999999997</v>
       </c>
       <c r="J14">
-        <v>0.59620799999999985</v>
+        <v>0.55698299999999989</v>
       </c>
       <c r="K14">
-        <v>0.56764099999999995</v>
+        <v>0.57380199999999992</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.91840999999999984</v>
+        <v>0.91318900000000003</v>
       </c>
       <c r="B15">
-        <v>0.89005200000000007</v>
+        <v>0.88695499999999994</v>
       </c>
       <c r="C15">
-        <v>0.8522000000000004</v>
+        <v>0.83492799999999989</v>
       </c>
       <c r="D15">
-        <v>0.80468100000000053</v>
+        <v>0.77709699999999982</v>
       </c>
       <c r="E15">
-        <v>0.76320300000000008</v>
+        <v>0.70526700000000009</v>
       </c>
       <c r="F15">
-        <v>0.70893899999999987</v>
+        <v>0.69247000000000003</v>
       </c>
       <c r="G15">
-        <v>0.67483000000000015</v>
+        <v>0.65082600000000002</v>
       </c>
       <c r="H15">
-        <v>0.63892400000000005</v>
+        <v>0.60719800000000013</v>
       </c>
       <c r="I15">
-        <v>0.60045400000000004</v>
+        <v>0.59376399999999985</v>
       </c>
       <c r="J15">
-        <v>0.59692999999999996</v>
+        <v>0.55787599999999993</v>
       </c>
       <c r="K15">
-        <v>0.57018000000000002</v>
+        <v>0.57303199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.91837299999999999</v>
+        <v>0.91384799999999999</v>
       </c>
       <c r="B16">
-        <v>0.89038300000000004</v>
+        <v>0.8857379999999998</v>
       </c>
       <c r="C16">
-        <v>0.85270100000000015</v>
+        <v>0.83576600000000023</v>
       </c>
       <c r="D16">
-        <v>0.80415799999999993</v>
+        <v>0.77970499999999987</v>
       </c>
       <c r="E16">
-        <v>0.7637020000000001</v>
+        <v>0.70578000000000018</v>
       </c>
       <c r="F16">
-        <v>0.70992899999999992</v>
+        <v>0.6934260000000001</v>
       </c>
       <c r="G16">
-        <v>0.67321799999999998</v>
+        <v>0.6514000000000002</v>
       </c>
       <c r="H16">
-        <v>0.6413519999999997</v>
+        <v>0.607124</v>
       </c>
       <c r="I16">
-        <v>0.59828000000000015</v>
+        <v>0.59208600000000022</v>
       </c>
       <c r="J16">
-        <v>0.59646800000000011</v>
+        <v>0.55750399999999989</v>
       </c>
       <c r="K16">
-        <v>0.57030000000000003</v>
+        <v>0.57353600000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.8092600000000002</v>
+        <v>0.80224099999999976</v>
       </c>
       <c r="B17">
-        <v>0.78735500000000014</v>
+        <v>0.76830599999999993</v>
       </c>
       <c r="C17">
-        <v>0.73595500000000003</v>
+        <v>0.70928000000000013</v>
       </c>
       <c r="D17">
-        <v>0.68584100000000003</v>
+        <v>0.64860200000000001</v>
       </c>
       <c r="E17">
-        <v>0.63401699999999994</v>
+        <v>0.586368</v>
       </c>
       <c r="F17">
-        <v>0.61045999999999989</v>
+        <v>0.53211399999999986</v>
       </c>
       <c r="G17">
-        <v>0.55441200000000002</v>
+        <v>0.47303399999999984</v>
       </c>
       <c r="H17">
-        <v>0.50289799999999996</v>
+        <v>0.46979600000000005</v>
       </c>
       <c r="I17">
-        <v>0.45420199999999988</v>
+        <v>0.45233799999999996</v>
       </c>
       <c r="J17">
-        <v>0.47025199999999984</v>
+        <v>0.43605800000000011</v>
       </c>
       <c r="K17">
-        <v>0.48199399999999992</v>
+        <v>0.45168000000000014</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.81287699999999974</v>
+        <v>0.80518000000000001</v>
       </c>
       <c r="B18">
-        <v>0.79332600000000031</v>
+        <v>0.77554300000000009</v>
       </c>
       <c r="C18">
-        <v>0.74662400000000018</v>
+        <v>0.71925099999999986</v>
       </c>
       <c r="D18">
-        <v>0.69197900000000001</v>
+        <v>0.65565799999999985</v>
       </c>
       <c r="E18">
-        <v>0.64155899999999999</v>
+        <v>0.60103600000000013</v>
       </c>
       <c r="F18">
-        <v>0.6108300000000001</v>
+        <v>0.54266799999999982</v>
       </c>
       <c r="G18">
-        <v>0.55480799999999997</v>
+        <v>0.478468</v>
       </c>
       <c r="H18">
-        <v>0.49698799999999993</v>
+        <v>0.48008000000000012</v>
       </c>
       <c r="I18">
-        <v>0.44251400000000002</v>
+        <v>0.46443400000000012</v>
       </c>
       <c r="J18">
-        <v>0.46782600000000002</v>
+        <v>0.4436460000000001</v>
       </c>
       <c r="K18">
-        <v>0.48520800000000008</v>
+        <v>0.45599199999999995</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.81846299999999972</v>
+        <v>0.81481700000000001</v>
       </c>
       <c r="B19">
-        <v>0.80000999999999978</v>
+        <v>0.78789699999999996</v>
       </c>
       <c r="C19">
-        <v>0.74893700000000007</v>
+        <v>0.72853699999999999</v>
       </c>
       <c r="D19">
-        <v>0.69679100000000005</v>
+        <v>0.66753299999999993</v>
       </c>
       <c r="E19">
-        <v>0.63972700000000005</v>
+        <v>0.62083900000000003</v>
       </c>
       <c r="F19">
-        <v>0.60558099999999992</v>
+        <v>0.558558</v>
       </c>
       <c r="G19">
-        <v>0.54878400000000005</v>
+        <v>0.48384600000000005</v>
       </c>
       <c r="H19">
-        <v>0.49545300000000003</v>
+        <v>0.49275199999999991</v>
       </c>
       <c r="I19">
-        <v>0.44410799999999978</v>
+        <v>0.473576</v>
       </c>
       <c r="J19">
-        <v>0.46704200000000001</v>
+        <v>0.45588599999999985</v>
       </c>
       <c r="K19">
-        <v>0.49138200000000004</v>
+        <v>0.46127000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.23529900000000001</v>
+        <v>0.23963099999999998</v>
       </c>
       <c r="B20">
-        <v>0.36999299999999991</v>
+        <v>0.38117200000000007</v>
       </c>
       <c r="C20">
-        <v>0.63204000000000005</v>
+        <v>0.62221099999999996</v>
       </c>
       <c r="D20">
-        <v>0.73743599999999998</v>
+        <v>0.68657900000000027</v>
       </c>
       <c r="E20">
-        <v>0.74375900000000017</v>
+        <v>0.745506</v>
       </c>
       <c r="F20">
-        <v>0.71745000000000003</v>
+        <v>0.75129199999999996</v>
       </c>
       <c r="G20">
-        <v>0.67080200000000001</v>
+        <v>0.72223599999999988</v>
       </c>
       <c r="H20">
-        <v>0.65959400000000001</v>
+        <v>0.67406399999999977</v>
       </c>
       <c r="I20">
-        <v>0.61878599999999995</v>
+        <v>0.65583999999999998</v>
       </c>
       <c r="J20">
-        <v>0.61284000000000005</v>
+        <v>0.6018779999999998</v>
       </c>
       <c r="K20">
-        <v>0.58918799999999993</v>
+        <v>0.59986800000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.1225999999999988E-2</v>
+        <v>8.5585999999999995E-2</v>
       </c>
       <c r="B21">
-        <v>0.18959899999999996</v>
+        <v>0.18100900000000006</v>
       </c>
       <c r="C21">
-        <v>0.37465199999999999</v>
+        <v>0.37399900000000008</v>
       </c>
       <c r="D21">
-        <v>0.51610000000000011</v>
+        <v>0.41938499999999995</v>
       </c>
       <c r="E21">
-        <v>0.54884800000000011</v>
+        <v>0.47354800000000002</v>
       </c>
       <c r="F21">
-        <v>0.56261800000000006</v>
+        <v>0.49346400000000012</v>
       </c>
       <c r="G21">
-        <v>0.53731400000000007</v>
+        <v>0.47319599999999989</v>
       </c>
       <c r="H21">
-        <v>0.51497999999999988</v>
+        <v>0.46238200000000002</v>
       </c>
       <c r="I21">
-        <v>0.49403200000000003</v>
+        <v>0.45005800000000012</v>
       </c>
       <c r="J21">
-        <v>0.50589200000000001</v>
+        <v>0.4316040000000001</v>
       </c>
       <c r="K21">
-        <v>0.50621000000000005</v>
+        <v>0.47922200000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.74956199999999995</v>
+        <v>0.74918100000000021</v>
       </c>
       <c r="B22">
-        <v>0.73636399999999991</v>
+        <v>0.72429399999999999</v>
       </c>
       <c r="C22">
-        <v>0.71926000000000001</v>
+        <v>0.70648800000000012</v>
       </c>
       <c r="D22">
-        <v>0.70994500000000049</v>
+        <v>0.67255900000000013</v>
       </c>
       <c r="E22">
-        <v>0.70766799999999974</v>
+        <v>0.65664400000000034</v>
       </c>
       <c r="F22">
-        <v>0.69073700000000016</v>
+        <v>0.68075400000000019</v>
       </c>
       <c r="G22">
-        <v>0.66970399999999985</v>
+        <v>0.66917599999999977</v>
       </c>
       <c r="H22">
-        <v>0.64794099999999999</v>
+        <v>0.63250200000000001</v>
       </c>
       <c r="I22">
-        <v>0.61103799999999975</v>
+        <v>0.62021000000000004</v>
       </c>
       <c r="J22">
-        <v>0.60527399999999987</v>
+        <v>0.58254600000000001</v>
       </c>
       <c r="K22">
-        <v>0.57513000000000014</v>
+        <v>0.58457000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.78729899999999986</v>
+        <v>0.78745699999999996</v>
       </c>
       <c r="B23">
-        <v>0.77685499999999985</v>
+        <v>0.7648410000000001</v>
       </c>
       <c r="C23">
-        <v>0.75701799999999997</v>
+        <v>0.75702300000000022</v>
       </c>
       <c r="D23">
-        <v>0.75497300000000012</v>
+        <v>0.73038300000000012</v>
       </c>
       <c r="E23">
-        <v>0.74435899999999999</v>
+        <v>0.73176000000000019</v>
       </c>
       <c r="F23">
-        <v>0.71456999999999993</v>
+        <v>0.75401399999999996</v>
       </c>
       <c r="G23">
-        <v>0.68049400000000004</v>
+        <v>0.72525000000000006</v>
       </c>
       <c r="H23">
-        <v>0.66071099999999972</v>
+        <v>0.66727199999999998</v>
       </c>
       <c r="I23">
-        <v>0.61661799999999989</v>
+        <v>0.64516600000000013</v>
       </c>
       <c r="J23">
-        <v>0.60768800000000001</v>
+        <v>0.59816200000000019</v>
       </c>
       <c r="K23">
-        <v>0.58195200000000002</v>
+        <v>0.59397999999999984</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.73512299999999986</v>
+        <v>0.73466599999999982</v>
       </c>
       <c r="B24">
-        <v>0.7268150000000001</v>
+        <v>0.71618099999999996</v>
       </c>
       <c r="C24">
-        <v>0.70770799999999989</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="D24">
-        <v>0.7001879999999997</v>
+        <v>0.65739299999999967</v>
       </c>
       <c r="E24">
-        <v>0.69455899999999982</v>
+        <v>0.64084399999999997</v>
       </c>
       <c r="F24">
-        <v>0.67599399999999987</v>
+        <v>0.65847000000000011</v>
       </c>
       <c r="G24">
-        <v>0.66019200000000011</v>
+        <v>0.64759199999999995</v>
       </c>
       <c r="H24">
-        <v>0.64530299999999996</v>
+        <v>0.61460399999999993</v>
       </c>
       <c r="I24">
-        <v>0.60627599999999993</v>
+        <v>0.60629600000000006</v>
       </c>
       <c r="J24">
-        <v>0.60184000000000004</v>
+        <v>0.57406000000000013</v>
       </c>
       <c r="K24">
-        <v>0.57135400000000003</v>
+        <v>0.58087999999999984</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.66658600000000023</v>
+        <v>0.64843499999999976</v>
       </c>
       <c r="B25">
-        <v>0.65998899999999994</v>
+        <v>0.64401699999999995</v>
       </c>
       <c r="C25">
-        <v>0.66503499999999993</v>
+        <v>0.63225500000000001</v>
       </c>
       <c r="D25">
-        <v>0.63641600000000009</v>
+        <v>0.59756599999999982</v>
       </c>
       <c r="E25">
-        <v>0.63867699999999994</v>
+        <v>0.56938</v>
       </c>
       <c r="F25">
-        <v>0.63530399999999998</v>
+        <v>0.59835299999999991</v>
       </c>
       <c r="G25">
-        <v>0.61025599999999991</v>
+        <v>0.62273099999999992</v>
       </c>
       <c r="H25">
-        <v>0.59933500000000006</v>
+        <v>0.62941999999999998</v>
       </c>
       <c r="I25">
-        <v>0.56000500000000031</v>
+        <v>0.63991399999999998</v>
       </c>
       <c r="J25">
-        <v>0.57279200000000019</v>
+        <v>0.60620399999999997</v>
       </c>
       <c r="K25">
-        <v>0.56716200000000017</v>
+        <v>0.5939540000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.72027199999999991</v>
+        <v>0.72455499999999984</v>
       </c>
       <c r="B26">
-        <v>0.70338300000000009</v>
+        <v>0.69612099999999999</v>
       </c>
       <c r="C26">
-        <v>0.68716300000000019</v>
+        <v>0.67783999999999989</v>
       </c>
       <c r="D26">
-        <v>0.68105700000000013</v>
+        <v>0.64431399999999994</v>
       </c>
       <c r="E26">
-        <v>0.66277199999999992</v>
+        <v>0.62527299999999986</v>
       </c>
       <c r="F26">
-        <v>0.63534900000000005</v>
+        <v>0.61745799999999995</v>
       </c>
       <c r="G26">
-        <v>0.63480799999999993</v>
+        <v>0.60789199999999999</v>
       </c>
       <c r="H26">
-        <v>0.63537699999999997</v>
+        <v>0.58823000000000003</v>
       </c>
       <c r="I26">
-        <v>0.60182800000000003</v>
+        <v>0.57701200000000019</v>
       </c>
       <c r="J26">
-        <v>0.59986199999999978</v>
+        <v>0.55308600000000008</v>
       </c>
       <c r="K26">
-        <v>0.56726799999999988</v>
+        <v>0.5765699999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.70509499999999992</v>
+        <v>0.70012399999999986</v>
       </c>
       <c r="B27">
-        <v>0.69411800000000012</v>
+        <v>0.67121800000000009</v>
       </c>
       <c r="C27">
-        <v>0.67544599999999988</v>
+        <v>0.64711200000000024</v>
       </c>
       <c r="D27">
-        <v>0.64911199999999991</v>
+        <v>0.61460900000000007</v>
       </c>
       <c r="E27">
-        <v>0.67514000000000041</v>
+        <v>0.61133499999999996</v>
       </c>
       <c r="F27">
-        <v>0.6670539999999997</v>
+        <v>0.65146799999999994</v>
       </c>
       <c r="G27">
-        <v>0.65766199999999997</v>
+        <v>0.65746000000000004</v>
       </c>
       <c r="H27">
-        <v>0.63849</v>
+        <v>0.63608200000000004</v>
       </c>
       <c r="I27">
-        <v>0.60044199999999992</v>
+        <v>0.62967800000000007</v>
       </c>
       <c r="J27">
-        <v>0.60032799999999986</v>
+        <v>0.58651199999999992</v>
       </c>
       <c r="K27">
-        <v>0.574214</v>
+        <v>0.58660800000000013</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.67286399999999991</v>
+        <v>0.6565850000000002</v>
       </c>
       <c r="B28">
-        <v>0.66977500000000034</v>
+        <v>0.65762600000000004</v>
       </c>
       <c r="C28">
-        <v>0.67650700000000019</v>
+        <v>0.65507000000000004</v>
       </c>
       <c r="D28">
-        <v>0.66841699999999993</v>
+        <v>0.61126400000000003</v>
       </c>
       <c r="E28">
-        <v>0.65509399999999973</v>
+        <v>0.58305899999999999</v>
       </c>
       <c r="F28">
-        <v>0.63288100000000003</v>
+        <v>0.58678000000000008</v>
       </c>
       <c r="G28">
-        <v>0.611286</v>
+        <v>0.5706730000000001</v>
       </c>
       <c r="H28">
-        <v>0.60324299999999986</v>
+        <v>0.55295599999999989</v>
       </c>
       <c r="I28">
-        <v>0.56963300000000017</v>
+        <v>0.55218</v>
       </c>
       <c r="J28">
-        <v>0.57171000000000005</v>
+        <v>0.52540600000000015</v>
       </c>
       <c r="K28">
-        <v>0.54860400000000009</v>
+        <v>0.55779400000000012</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.72967599999999999</v>
+        <v>0.72622199999999959</v>
       </c>
       <c r="B29">
-        <v>0.71776899999999988</v>
+        <v>0.70713899999999996</v>
       </c>
       <c r="C29">
-        <v>0.70139599999999991</v>
+        <v>0.67939799999999995</v>
       </c>
       <c r="D29">
-        <v>0.68504000000000009</v>
+        <v>0.63669199999999992</v>
       </c>
       <c r="E29">
-        <v>0.66141699999999981</v>
+        <v>0.60582800000000003</v>
       </c>
       <c r="F29">
-        <v>0.63596999999999992</v>
+        <v>0.59696799999999994</v>
       </c>
       <c r="G29">
-        <v>0.62226799999999993</v>
+        <v>0.58398600000000012</v>
       </c>
       <c r="H29">
-        <v>0.61432700000000007</v>
+        <v>0.56066999999999989</v>
       </c>
       <c r="I29">
-        <v>0.58070999999999995</v>
+        <v>0.56087799999999999</v>
       </c>
       <c r="J29">
-        <v>0.57799999999999985</v>
+        <v>0.5345000000000002</v>
       </c>
       <c r="K29">
-        <v>0.55450999999999984</v>
+        <v>0.56173000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.72756900000000002</v>
+        <v>0.72458699999999976</v>
       </c>
       <c r="B30">
-        <v>0.714117</v>
+        <v>0.70321100000000014</v>
       </c>
       <c r="C30">
-        <v>0.69632100000000008</v>
+        <v>0.67927500000000018</v>
       </c>
       <c r="D30">
-        <v>0.68159099999999995</v>
+        <v>0.63036400000000015</v>
       </c>
       <c r="E30">
-        <v>0.6678019999999999</v>
+        <v>0.60399900000000006</v>
       </c>
       <c r="F30">
-        <v>0.64582399999999995</v>
+        <v>0.60651200000000005</v>
       </c>
       <c r="G30">
-        <v>0.63330599999999992</v>
+        <v>0.598302</v>
       </c>
       <c r="H30">
-        <v>0.62194899999999986</v>
+        <v>0.57572800000000013</v>
       </c>
       <c r="I30">
-        <v>0.58861400000000008</v>
+        <v>0.5721879999999997</v>
       </c>
       <c r="J30">
-        <v>0.58899400000000002</v>
+        <v>0.54337999999999997</v>
       </c>
       <c r="K30">
-        <v>0.55950399999999989</v>
+        <v>0.56975999999999982</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.85000500000000001</v>
+        <v>0.84498600000000013</v>
       </c>
       <c r="B31">
-        <v>0.81536299999999995</v>
+        <v>0.8053840000000001</v>
       </c>
       <c r="C31">
-        <v>0.75924399999999992</v>
+        <v>0.73636499999999983</v>
       </c>
       <c r="D31">
-        <v>0.71019700000000019</v>
+        <v>0.67437100000000005</v>
       </c>
       <c r="E31">
-        <v>0.67732299999999979</v>
+        <v>0.6178459999999999</v>
       </c>
       <c r="F31">
-        <v>0.64663299999999979</v>
+        <v>0.61354599999999992</v>
       </c>
       <c r="G31">
-        <v>0.62434999999999996</v>
+        <v>0.58072800000000013</v>
       </c>
       <c r="H31">
-        <v>0.60331500000000016</v>
+        <v>0.56806000000000001</v>
       </c>
       <c r="I31">
-        <v>0.56637000000000015</v>
+        <v>0.55609399999999976</v>
       </c>
       <c r="J31">
-        <v>0.57720399999999972</v>
+        <v>0.53116999999999992</v>
       </c>
       <c r="K31">
-        <v>0.55625199999999986</v>
+        <v>0.56134000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.74843700000000013</v>
+        <v>0.76237200000000005</v>
       </c>
       <c r="B32">
-        <v>0.77667399999999998</v>
+        <v>0.78100799999999992</v>
       </c>
       <c r="C32">
-        <v>0.81420099999999973</v>
+        <v>0.80219599999999958</v>
       </c>
       <c r="D32">
-        <v>0.79972800000000033</v>
+        <v>0.77856399999999992</v>
       </c>
       <c r="E32">
-        <v>0.76119600000000009</v>
+        <v>0.7283710000000001</v>
       </c>
       <c r="F32">
-        <v>0.71656200000000014</v>
+        <v>0.71533599999999975</v>
       </c>
       <c r="G32">
-        <v>0.67521599999999982</v>
+        <v>0.66457999999999984</v>
       </c>
       <c r="H32">
-        <v>0.64733900000000011</v>
+        <v>0.61473800000000001</v>
       </c>
       <c r="I32">
-        <v>0.61055599999999999</v>
+        <v>0.60147800000000018</v>
       </c>
       <c r="J32">
-        <v>0.60577599999999998</v>
+        <v>0.57080000000000009</v>
       </c>
       <c r="K32">
-        <v>0.59107799999999999</v>
+        <v>0.59205200000000002</v>
       </c>
     </row>
   </sheetData>
